--- a/historical/LICI.xlsx
+++ b/historical/LICI.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="17">
   <si>
     <t>Date</t>
   </si>
@@ -426,7 +426,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O88"/>
+  <dimension ref="A1:O89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4568,6 +4568,53 @@
         <v>0.4584</v>
       </c>
     </row>
+    <row r="89" spans="1:15">
+      <c r="A89" s="2">
+        <v>44824</v>
+      </c>
+      <c r="B89" t="s">
+        <v>15</v>
+      </c>
+      <c r="C89" t="s">
+        <v>16</v>
+      </c>
+      <c r="D89">
+        <v>654.75</v>
+      </c>
+      <c r="E89">
+        <v>657.55</v>
+      </c>
+      <c r="F89">
+        <v>665.05</v>
+      </c>
+      <c r="G89">
+        <v>655.55</v>
+      </c>
+      <c r="H89">
+        <v>656.4</v>
+      </c>
+      <c r="I89">
+        <v>656.35</v>
+      </c>
+      <c r="J89">
+        <v>659.3200000000001</v>
+      </c>
+      <c r="K89">
+        <v>927521</v>
+      </c>
+      <c r="L89">
+        <v>61153015895000.01</v>
+      </c>
+      <c r="M89">
+        <v>28388</v>
+      </c>
+      <c r="N89">
+        <v>393288</v>
+      </c>
+      <c r="O89">
+        <v>0.424</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
